--- a/biology/Botanique/Sphagnum_squarrosum/Sphagnum_squarrosum.xlsx
+++ b/biology/Botanique/Sphagnum_squarrosum/Sphagnum_squarrosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sphagnum squarrosum (ou Sphaigne squarreuse) est une bryophyte de la famille des Sphagnacées[1] (spiky bog-moss[2] ou spreading-leaved bog moss[3]).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sphagnum squarrosum (ou Sphaigne squarreuse) est une bryophyte de la famille des Sphagnacées (spiky bog-moss ou spreading-leaved bog moss).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette mousse a une couleur vert tendre quand elle est normalement humide.
 </t>
@@ -542,10 +556,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce apprécie les sols et substrats acides, riches en matière organique nutriments et très humides Ses habitats typiques incluent les bois humides et tourbeux riche en bois-morts, certains fossés et les banquettes de cours d'eau rapides (torrents, cascades…), jusqu'à haute altitude. On la trouve souvent en milieux paratourbeux, associée à des Caricaies, des tapis de joncs ou des étendues ou touradons de molinie bleue (Molinia caerulea)[2].
-Une analyse génétique récente (2006) a montré (sur la base des haplotypes chloroplastiques) que cette espèce est plus ubiquiste que S. fimbriatum qui montre elle de fortes affinités biogéographiques[4]. Une hypothèse est que S. fimbriatum a survécu aux dernières glaciations en zone atlantique plutôt littorale en Europe, alors que S squarrosum a bénéficié de nombreux refuges dans toute l'Europe. L'existence d'un haplotype dominant de S. fimbriatum dans presque toute l'Europe suggère une recolonisation rapide de certains milieux par cette espèce à partir de la fin du maximum glaciaire (il y a environ 10 000 ans) ; une capacité colonisatrice élevé de S. fimbriatum serait alors une caractéristique inhérente et la récente expansion de en Europe pourrait être une réponse au changement climatique.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce apprécie les sols et substrats acides, riches en matière organique nutriments et très humides Ses habitats typiques incluent les bois humides et tourbeux riche en bois-morts, certains fossés et les banquettes de cours d'eau rapides (torrents, cascades…), jusqu'à haute altitude. On la trouve souvent en milieux paratourbeux, associée à des Caricaies, des tapis de joncs ou des étendues ou touradons de molinie bleue (Molinia caerulea).
+Une analyse génétique récente (2006) a montré (sur la base des haplotypes chloroplastiques) que cette espèce est plus ubiquiste que S. fimbriatum qui montre elle de fortes affinités biogéographiques. Une hypothèse est que S. fimbriatum a survécu aux dernières glaciations en zone atlantique plutôt littorale en Europe, alors que S squarrosum a bénéficié de nombreux refuges dans toute l'Europe. L'existence d'un haplotype dominant de S. fimbriatum dans presque toute l'Europe suggère une recolonisation rapide de certains milieux par cette espèce à partir de la fin du maximum glaciaire (il y a environ 10 000 ans) ; une capacité colonisatrice élevé de S. fimbriatum serait alors une caractéristique inhérente et la récente expansion de en Europe pourrait être une réponse au changement climatique.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Services écosystémiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En se décomposant (mal) elle contribue à former la tourbe[5] et joue donc un rôle en matière de puits de carbone et pour la conservation de l'eau, les tourbières jouant souvent un rôle tampon important.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En se décomposant (mal) elle contribue à former la tourbe et joue donc un rôle en matière de puits de carbone et pour la conservation de l'eau, les tourbières jouant souvent un rôle tampon important.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cette espèce a une croissance rapide, et comme toutes les espèces des genres Sphagnum et Polytrichum là où elles s'installent tendent à augmenter et entretenir l'acidité du milieu[6]. Elle a une capacité d'acidification particulièrement élevée[7], ce qui est sans doute une manière d'éliminer d'autres plantes ne supportant pas cette acidité. (y compris d'autres mousses telles que Sphagnum scorpioides[8])
-Dans les régions circum polaires, elle peut être parasitée par Discinella schimperi[9].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cette espèce a une croissance rapide, et comme toutes les espèces des genres Sphagnum et Polytrichum là où elles s'installent tendent à augmenter et entretenir l'acidité du milieu. Elle a une capacité d'acidification particulièrement élevée, ce qui est sans doute une manière d'éliminer d'autres plantes ne supportant pas cette acidité. (y compris d'autres mousses telles que Sphagnum scorpioides)
+Dans les régions circum polaires, elle peut être parasitée par Discinella schimperi.</t>
         </is>
       </c>
     </row>
@@ -636,10 +656,12 @@
           <t>État des populations, menaces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme toutes les plantes de tourbières, cette espèce est menacée par le drainage des zones humides, et pourrait être affectée par les conséquences du réchauffement climatique.
-L'eutrophisation générale des milieux et localement leur dystrophisation par la diffusion d'azote (sous forme d'engrais agricoles notamment[10]) est une autre cause de régression[11].
+L'eutrophisation générale des milieux et localement leur dystrophisation par la diffusion d'azote (sous forme d'engrais agricoles notamment) est une autre cause de régression.
 </t>
         </is>
       </c>
